--- a/table/dredge/abu_sp_d.xlsx
+++ b/table/dredge/abu_sp_d.xlsx
@@ -365,32 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cruise:Depth</t>
+          <t>Depth:DRM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cruise:DRM</t>
+          <t>Depth:Month</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Depth:DRM</t>
+          <t>DRM:Month</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -438,32 +438,32 @@
       <c r="A2">
         <v>4.055808692924011</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B2">
+        <v>-0.05869947718450887</v>
       </c>
       <c r="C2">
-        <v>-0.05869947718450875</v>
-      </c>
-      <c r="D2">
-        <v>-0.1434979182244608</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>-0.143497918224461</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.06179045099957722</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="G2">
-        <v>0.06179045099957725</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H2">
-        <v>0.7929473038810539</v>
+        <v>0.7929473038810541</v>
       </c>
       <c r="I2">
         <v>8</v>
@@ -478,10 +478,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7662212737020857</v>
+        <v>0.7662212737020859</v>
       </c>
       <c r="N2">
-        <v>0.7451659124689894</v>
+        <v>0.7451659124689896</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -489,25 +489,25 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>4.03339978823858</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>4.033399788238579</v>
+      </c>
+      <c r="B3">
+        <v>-0.08077016576720128</v>
       </c>
       <c r="C3">
-        <v>-0.08077016576720111</v>
-      </c>
-      <c r="D3">
-        <v>-0.1812764453405392</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>-0.1812764453405394</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -541,27 +541,27 @@
       <c r="A4">
         <v>4.059928716846247</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B4">
+        <v>0.01527448987367492</v>
       </c>
       <c r="C4">
-        <v>0.01527448987367494</v>
-      </c>
-      <c r="D4">
-        <v>-0.09680689775510185</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0.08914883112156311</v>
+        <v>-0.09680689775510189</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>0.08914883112156308</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H4">
-        <v>0.7193981157696525</v>
+        <v>0.7193981157696526</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -576,10 +576,10 @@
         <v>6.510797188277465</v>
       </c>
       <c r="M4">
-        <v>0.02954966487824301</v>
+        <v>0.02954966487824302</v>
       </c>
       <c r="N4">
-        <v>0.6674348038751437</v>
+        <v>0.6674348038751439</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -589,21 +589,21 @@
       <c r="A5">
         <v>4.026100804243092</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>-0.143579584333234</v>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C5">
+        <v>-0.1435795843332341</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H5">
-        <v>0.6152040256792843</v>
+        <v>0.6152040256792846</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -615,13 +615,13 @@
         <v>-40.15860551352228</v>
       </c>
       <c r="L5">
-        <v>10.67363976377605</v>
+        <v>10.67363976377604</v>
       </c>
       <c r="M5">
-        <v>0.003686402739443473</v>
+        <v>0.003686402739443487</v>
       </c>
       <c r="N5">
-        <v>0.5753975455771414</v>
+        <v>0.5753975455771416</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -631,24 +631,24 @@
       <c r="A6">
         <v>4.063039162849225</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B6">
+        <v>-0.01021751290752975</v>
       </c>
       <c r="C6">
-        <v>-0.01021751290752972</v>
-      </c>
-      <c r="D6">
-        <v>-0.03622644666262293</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G6">
+        <v>-0.03622644666262292</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E6">
         <v>0.08086217946940651</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H6">
         <v>0.6604002437709209</v>
@@ -657,16 +657,16 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>28.2520149540297</v>
+        <v>28.25201495402969</v>
       </c>
       <c r="K6">
-        <v>-38.02402990805939</v>
+        <v>-38.02402990805938</v>
       </c>
       <c r="L6">
-        <v>12.80821536923894</v>
+        <v>12.80821536923895</v>
       </c>
       <c r="M6">
-        <v>0.001267901678596107</v>
+        <v>0.001267901678596098</v>
       </c>
       <c r="N6">
         <v>0.5975114000247952</v>
@@ -679,28 +679,28 @@
       <c r="A7">
         <v>4.065050621349154</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B7">
+        <v>0.03644711399144783</v>
       </c>
       <c r="C7">
-        <v>0.03644711399144782</v>
-      </c>
-      <c r="D7">
-        <v>-0.01671647636692577</v>
-      </c>
-      <c r="G7">
-        <v>0.097972512202502</v>
+        <v>-0.01671647636692574</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>0.09797251220250203</v>
       </c>
       <c r="H7">
-        <v>0.6249426245980443</v>
+        <v>0.6249426245980445</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7">
-        <v>26.61337885515505</v>
+        <v>26.61337885515504</v>
       </c>
       <c r="K7">
         <v>-37.99598847954086</v>
@@ -712,7 +712,7 @@
         <v>0.001250248833383668</v>
       </c>
       <c r="N7">
-        <v>0.571362999540622</v>
+        <v>0.5713629995406223</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -722,39 +722,39 @@
       <c r="A8">
         <v>4.025144669071834</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B8">
+        <v>0.01058054056923997</v>
       </c>
       <c r="C8">
-        <v>0.01058054056924002</v>
-      </c>
-      <c r="D8">
-        <v>-0.1386414594274317</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>-0.1386414594274318</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H8">
-        <v>0.6180524392233378</v>
+        <v>0.6180524392233377</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
       <c r="J8">
-        <v>26.31300776670599</v>
+        <v>26.31300776670598</v>
       </c>
       <c r="K8">
-        <v>-37.39524630264275</v>
+        <v>-37.39524630264273</v>
       </c>
       <c r="L8">
-        <v>13.43699897465558</v>
+        <v>13.43699897465559</v>
       </c>
       <c r="M8">
-        <v>0.0009258634751589905</v>
+        <v>0.0009258634751589842</v>
       </c>
       <c r="N8">
         <v>0.5634885019695288</v>
@@ -767,18 +767,18 @@
       <c r="A9">
         <v>4.033756255222692</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B9">
+        <v>-0.03345313414186778</v>
       </c>
       <c r="C9">
-        <v>-0.03345313414186768</v>
-      </c>
-      <c r="D9">
-        <v>-0.07270786945384407</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>-0.0727078694538441</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -790,16 +790,16 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>24.9133239672298</v>
+        <v>24.91332396722979</v>
       </c>
       <c r="K9">
-        <v>-34.59587870369036</v>
+        <v>-34.59587870369035</v>
       </c>
       <c r="L9">
-        <v>16.23636657360797</v>
+        <v>16.23636657360798</v>
       </c>
       <c r="M9">
-        <v>0.0002283873267747934</v>
+        <v>0.0002283873267747919</v>
       </c>
       <c r="N9">
         <v>0.5248435883409667</v>
@@ -812,13 +812,13 @@
       <c r="A10">
         <v>4.03083436172502</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>-0.05520576681292617</v>
+      <c r="C10">
+        <v>-0.05520576681292619</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H10">
         <v>0.4684658830686498</v>
@@ -827,16 +827,16 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>20.86002074549946</v>
+        <v>20.86002074549945</v>
       </c>
       <c r="K10">
-        <v>-32.29147006242749</v>
+        <v>-32.29147006242748</v>
       </c>
       <c r="L10">
-        <v>18.54077521487083</v>
+        <v>18.54077521487085</v>
       </c>
       <c r="M10">
-        <v>7.215659361470246e-005</v>
+        <v>7.215659361470195e-05</v>
       </c>
       <c r="N10">
         <v>0.4330302752732265</v>
@@ -849,16 +849,16 @@
       <c r="A11">
         <v>4.027021798314497</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B11">
+        <v>0.03373103834351063</v>
       </c>
       <c r="C11">
-        <v>0.03373103834351065</v>
-      </c>
-      <c r="D11">
-        <v>-0.05373358937957364</v>
+        <v>-0.05373358937957363</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H11">
         <v>0.5012421226368042</v>
@@ -870,13 +870,13 @@
         <v>21.9101900304397</v>
       </c>
       <c r="K11">
-        <v>-31.59815783865719</v>
+        <v>-31.59815783865717</v>
       </c>
       <c r="L11">
-        <v>19.23408743864114</v>
+        <v>19.23408743864115</v>
       </c>
       <c r="M11">
-        <v>5.101820637427755e-005</v>
+        <v>5.10182063742772e-05</v>
       </c>
       <c r="N11">
         <v>0.4496464801509564</v>
@@ -889,31 +889,31 @@
       <c r="A12">
         <v>4.03379134239956</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H12">
-        <v>0.3796497006378915</v>
+        <v>0.3796497006378914</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12">
-        <v>18.31049137018109</v>
+        <v>18.31049137018108</v>
       </c>
       <c r="K12">
-        <v>-29.79339653346562</v>
+        <v>-29.7933965334656</v>
       </c>
       <c r="L12">
-        <v>21.03884874383271</v>
+        <v>21.03884874383273</v>
       </c>
       <c r="M12">
-        <v>2.069313295967375e-005</v>
+        <v>2.069313295967353e-05</v>
       </c>
       <c r="N12">
-        <v>0.3596384006584686</v>
+        <v>0.3596384006584685</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -923,34 +923,34 @@
       <c r="A13">
         <v>4.029626749349443</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>0.03609894030286134</v>
+      <c r="B13">
+        <v>0.03609894030286132</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H13">
-        <v>0.4172615507292329</v>
+        <v>0.4172615507292327</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13">
-        <v>19.34249807354962</v>
+        <v>19.34249807354961</v>
       </c>
       <c r="K13">
-        <v>-29.25642471852782</v>
+        <v>-29.25642471852779</v>
       </c>
       <c r="L13">
-        <v>21.57582055877051</v>
+        <v>21.57582055877054</v>
       </c>
       <c r="M13">
-        <v>1.582064917667459e-005</v>
+        <v>1.582064917667436e-05</v>
       </c>
       <c r="N13">
-        <v>0.3784123207778484</v>
+        <v>0.3784123207778481</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -960,39 +960,39 @@
       <c r="A14">
         <v>4.033994979501184</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>-0.001765138510898449</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="B14">
+        <v>-0.001765138510898472</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H14">
-        <v>0.4477026615080645</v>
+        <v>0.4477026615080643</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
       <c r="J14">
-        <v>20.2277544022035</v>
+        <v>20.22775440220348</v>
       </c>
       <c r="K14">
-        <v>-28.23328658218477</v>
+        <v>-28.23328658218474</v>
       </c>
       <c r="L14">
-        <v>22.59895869511356</v>
+        <v>22.59895869511359</v>
       </c>
       <c r="M14">
-        <v>9.485335064748723e-006</v>
+        <v>9.485335064748589e-06</v>
       </c>
       <c r="N14">
-        <v>0.3905684540778642</v>
+        <v>0.390568454077864</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -1002,29 +1002,29 @@
       <c r="A15">
         <v>3.914735043151315</v>
       </c>
-      <c r="D15">
-        <v>-0.06090616442362586</v>
+      <c r="C15">
+        <v>-0.06090616442362588</v>
       </c>
       <c r="H15">
-        <v>0.1083900374261654</v>
+        <v>0.1083900374261652</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <v>12.32520781637783</v>
+        <v>12.32520781637782</v>
       </c>
       <c r="K15">
-        <v>-17.82282942585911</v>
+        <v>-17.82282942585909</v>
       </c>
       <c r="L15">
-        <v>33.00941585143922</v>
+        <v>33.00941585143924</v>
       </c>
       <c r="M15">
-        <v>5.205358294719287e-008</v>
+        <v>5.205358294719213e-08</v>
       </c>
       <c r="N15">
-        <v>0.07962842573023521</v>
+        <v>0.07962842573023499</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1034,14 +1034,14 @@
       <c r="A16">
         <v>3.914735043151315</v>
       </c>
+      <c r="B16">
+        <v>0.04536254508886486</v>
+      </c>
       <c r="C16">
-        <v>0.04536254508886489</v>
-      </c>
-      <c r="D16">
-        <v>-0.05867458996061582</v>
+        <v>-0.05867458996061583</v>
       </c>
       <c r="H16">
-        <v>0.1683704424322523</v>
+        <v>0.1683704424322527</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         <v>33.31222573535685</v>
       </c>
       <c r="M16">
-        <v>4.474003271893748e-008</v>
+        <v>4.474003271893749e-08</v>
       </c>
       <c r="N16">
-        <v>0.1129284719277358</v>
+        <v>0.1129284719277363</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1076,16 +1076,16 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>10.43222050504035</v>
+        <v>10.43222050504034</v>
       </c>
       <c r="K17">
-        <v>-16.46444101008071</v>
+        <v>-16.46444101008069</v>
       </c>
       <c r="L17">
-        <v>34.36780426721762</v>
+        <v>34.36780426721764</v>
       </c>
       <c r="M17">
-        <v>2.639248792708308e-008</v>
+        <v>2.639248792708289e-08</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1098,29 +1098,29 @@
       <c r="A18">
         <v>3.914735043151315</v>
       </c>
-      <c r="C18">
-        <v>0.04824899505165227</v>
+      <c r="B18">
+        <v>0.04824899505165226</v>
       </c>
       <c r="H18">
-        <v>0.06802106217284942</v>
+        <v>0.06802106217284964</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
-        <v>11.59456405196225</v>
+        <v>11.59456405196224</v>
       </c>
       <c r="K18">
         <v>-16.36154189702794</v>
       </c>
       <c r="L18">
-        <v>34.47070338027038</v>
+        <v>34.47070338027039</v>
       </c>
       <c r="M18">
-        <v>2.50689458975439e-008</v>
+        <v>2.506894589754373e-08</v>
       </c>
       <c r="N18">
-        <v>0.0379572254687478</v>
+        <v>0.03795722546874802</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -1130,35 +1130,35 @@
       <c r="A19">
         <v>3.915418383375401</v>
       </c>
+      <c r="B19">
+        <v>0.04632972952549103</v>
+      </c>
       <c r="C19">
-        <v>0.04632972952549105</v>
-      </c>
-      <c r="D19">
-        <v>-0.05313233733673439</v>
-      </c>
-      <c r="G19">
-        <v>0.01527973073000804</v>
+        <v>-0.0531323373367344</v>
+      </c>
+      <c r="E19">
+        <v>0.01527973073000808</v>
       </c>
       <c r="H19">
-        <v>0.1721062641606445</v>
+        <v>0.1721062641606441</v>
       </c>
       <c r="I19">
         <v>5</v>
       </c>
       <c r="J19">
-        <v>13.54858327969541</v>
+        <v>13.54858327969539</v>
       </c>
       <c r="K19">
-        <v>-14.87494433716859</v>
+        <v>-14.87494433716856</v>
       </c>
       <c r="L19">
-        <v>35.95730094012974</v>
+        <v>35.95730094012977</v>
       </c>
       <c r="M19">
-        <v>1.192135208302055e-008</v>
+        <v>1.192135208302038e-08</v>
       </c>
       <c r="N19">
-        <v>0.08646208459105598</v>
+        <v>0.08646208459105553</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
